--- a/test_unittest_git/data/cases.xlsx
+++ b/test_unittest_git/data/cases.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11720" windowWidth="28800"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="11720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="review_list" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_list" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -478,216 +478,216 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="26" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="11" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="11" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="1"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="2"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="3"/>
-    <cellStyle builtinId="20" name="输入" xfId="4"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="5"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="4" name="货币" xfId="7"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="8"/>
-    <cellStyle builtinId="5" name="百分比" xfId="9"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="10"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="11"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="12"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="13"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="14"/>
-    <cellStyle builtinId="22" name="计算" xfId="15"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="16"/>
-    <cellStyle builtinId="28" name="适中" xfId="17"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="18"/>
-    <cellStyle builtinId="26" name="好" xfId="19"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="20"/>
-    <cellStyle builtinId="25" name="汇总" xfId="21"/>
-    <cellStyle builtinId="27" name="差" xfId="22"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="25"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="26"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="27"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="28"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="29"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="30"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="31"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="32"/>
-    <cellStyle builtinId="15" name="标题" xfId="33"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="34"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="35"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="36"/>
-    <cellStyle builtinId="10" name="注释" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="38"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="39"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="40"/>
-    <cellStyle builtinId="8" name="超链接" xfId="41"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="42"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="47"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1028,12 +1028,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="9.142857142857141"/>
-    <col customWidth="1" max="2" min="2" style="1" width="10.1428571428571"/>
-    <col customWidth="1" max="3" min="3" style="1" width="7.71428571428571"/>
-    <col customWidth="1" max="4" min="4" style="1" width="26.8571428571429"/>
-    <col customWidth="1" max="5" min="5" style="1" width="34.7857142857143"/>
-    <col customWidth="1" max="7" min="7" style="1" width="71.28571428571431"/>
+    <col width="9.142857142857141" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.1428571428571" customWidth="1" style="1" min="2" max="2"/>
+    <col width="7.71428571428571" customWidth="1" style="1" min="3" max="3"/>
+    <col width="26.8571428571429" customWidth="1" style="1" min="4" max="4"/>
+    <col width="34.7857142857143" customWidth="1" style="1" min="5" max="5"/>
+    <col width="71.28571428571431" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1140,6 +1140,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
 </worksheet>
 </file>